--- a/teaching/traditional_assets/database/data/hungary/hungary_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/hungary/hungary_insurance_life.xlsx
@@ -591,118 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0458</v>
+        <v>0.018</v>
+      </c>
+      <c r="E2">
+        <v>-0.104</v>
       </c>
       <c r="G2">
-        <v>0.105658324265506</v>
+        <v>0.1115220483641536</v>
       </c>
       <c r="H2">
-        <v>0.105658324265506</v>
+        <v>0.1115220483641536</v>
       </c>
       <c r="I2">
-        <v>0.01149949091069268</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="J2">
-        <v>0.005749745455346338</v>
+        <v>0.1119174730285842</v>
       </c>
       <c r="K2">
-        <v>0.468</v>
+        <v>1.38</v>
       </c>
       <c r="L2">
-        <v>0.005092491838955386</v>
+        <v>0.01963015647226174</v>
       </c>
       <c r="M2">
-        <v>9.792</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1632</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>20.92307692307692</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3.333333333333333e-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.004273504273504273</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="T2">
-        <v>0.9997957516339868</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7.32</v>
+        <v>3.86</v>
       </c>
       <c r="V2">
-        <v>0.122</v>
+        <v>0.03580705009276438</v>
       </c>
       <c r="W2">
-        <v>0.007748344370860928</v>
+        <v>0.02827868852459016</v>
       </c>
       <c r="X2">
-        <v>0.09470522969807423</v>
+        <v>0.07579399897851161</v>
       </c>
       <c r="Y2">
-        <v>-0.0869568853272133</v>
+        <v>-0.04751531045392145</v>
       </c>
       <c r="Z2">
-        <v>1.565694854268413</v>
+        <v>1.608695652173913</v>
       </c>
       <c r="AA2">
-        <v>0.009002346872788954</v>
+        <v>0.1800411522633745</v>
       </c>
       <c r="AB2">
-        <v>0.0923789178469774</v>
+        <v>0.07556846554090965</v>
       </c>
       <c r="AC2">
-        <v>-0.08337657097418844</v>
+        <v>0.1044726867224649</v>
       </c>
       <c r="AD2">
-        <v>2.22</v>
+        <v>0.707</v>
       </c>
       <c r="AE2">
-        <v>0.9159839265367151</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.135983926536715</v>
+        <v>0.707</v>
       </c>
       <c r="AG2">
-        <v>-4.184016073463285</v>
+        <v>-3.153</v>
       </c>
       <c r="AH2">
-        <v>0.04967031051873144</v>
+        <v>0.006515708663957165</v>
       </c>
       <c r="AI2">
-        <v>0.06038171782732671</v>
+        <v>0.01606562592314859</v>
       </c>
       <c r="AJ2">
-        <v>-0.07496089433754601</v>
+        <v>-0.03012986516574771</v>
       </c>
       <c r="AK2">
-        <v>-0.09377841090207839</v>
+        <v>-0.07853637880788104</v>
       </c>
       <c r="AL2">
-        <v>0.193</v>
+        <v>0.081</v>
       </c>
       <c r="AM2">
-        <v>0.193</v>
+        <v>0.081</v>
       </c>
       <c r="AN2">
-        <v>0.8747044917257684</v>
+        <v>0.07403141361256543</v>
       </c>
       <c r="AO2">
-        <v>4.673575129533678</v>
+        <v>107.9012345679012</v>
       </c>
       <c r="AP2">
-        <v>-1.648548492302319</v>
+        <v>-0.3301570680628272</v>
       </c>
       <c r="AQ2">
-        <v>4.673575129533678</v>
+        <v>107.9012345679012</v>
       </c>
     </row>
     <row r="3">
@@ -722,118 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0458</v>
+        <v>0.018</v>
+      </c>
+      <c r="E3">
+        <v>-0.104</v>
       </c>
       <c r="G3">
-        <v>0.105658324265506</v>
+        <v>0.1115220483641536</v>
       </c>
       <c r="H3">
-        <v>0.105658324265506</v>
+        <v>0.1115220483641536</v>
       </c>
       <c r="I3">
-        <v>0.01149949091069268</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="J3">
-        <v>0.005749745455346338</v>
+        <v>0.1119174730285842</v>
       </c>
       <c r="K3">
-        <v>0.468</v>
+        <v>1.38</v>
       </c>
       <c r="L3">
-        <v>0.005092491838955386</v>
+        <v>0.01963015647226174</v>
       </c>
       <c r="M3">
-        <v>9.792</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1632</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>20.92307692307692</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>0.002</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>3.333333333333333e-05</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.004273504273504273</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.9997957516339868</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>7.32</v>
+        <v>3.86</v>
       </c>
       <c r="V3">
-        <v>0.122</v>
+        <v>0.03580705009276438</v>
       </c>
       <c r="W3">
-        <v>0.007748344370860928</v>
+        <v>0.02827868852459016</v>
       </c>
       <c r="X3">
-        <v>0.09470522969807423</v>
+        <v>0.07579399897851161</v>
       </c>
       <c r="Y3">
-        <v>-0.0869568853272133</v>
+        <v>-0.04751531045392145</v>
       </c>
       <c r="Z3">
-        <v>1.565694854268413</v>
+        <v>1.608695652173913</v>
       </c>
       <c r="AA3">
-        <v>0.009002346872788954</v>
+        <v>0.1800411522633745</v>
       </c>
       <c r="AB3">
-        <v>0.0923789178469774</v>
+        <v>0.07556846554090965</v>
       </c>
       <c r="AC3">
-        <v>-0.08337657097418844</v>
+        <v>0.1044726867224649</v>
       </c>
       <c r="AD3">
-        <v>2.22</v>
+        <v>0.707</v>
       </c>
       <c r="AE3">
-        <v>0.9159839265367151</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.135983926536715</v>
+        <v>0.707</v>
       </c>
       <c r="AG3">
-        <v>-4.184016073463285</v>
+        <v>-3.153</v>
       </c>
       <c r="AH3">
-        <v>0.04967031051873144</v>
+        <v>0.006515708663957165</v>
       </c>
       <c r="AI3">
-        <v>0.06038171782732671</v>
+        <v>0.01606562592314859</v>
       </c>
       <c r="AJ3">
-        <v>-0.07496089433754601</v>
+        <v>-0.03012986516574771</v>
       </c>
       <c r="AK3">
-        <v>-0.09377841090207839</v>
+        <v>-0.07853637880788104</v>
       </c>
       <c r="AL3">
-        <v>0.193</v>
+        <v>0.081</v>
       </c>
       <c r="AM3">
-        <v>0.193</v>
+        <v>0.081</v>
       </c>
       <c r="AN3">
-        <v>0.8747044917257684</v>
+        <v>0.07403141361256543</v>
       </c>
       <c r="AO3">
-        <v>4.673575129533678</v>
+        <v>107.9012345679012</v>
       </c>
       <c r="AP3">
-        <v>-1.648548492302319</v>
+        <v>-0.3301570680628272</v>
       </c>
       <c r="AQ3">
-        <v>4.673575129533678</v>
+        <v>107.9012345679012</v>
       </c>
     </row>
   </sheetData>
